--- a/mbs-perturbation/nano/svm/nano-svm-sigmoid-results.xlsx
+++ b/mbs-perturbation/nano/svm/nano-svm-sigmoid-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2093023255813954</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.45</v>
+        <v>0.05</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2857142857142858</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8460280373831776</v>
+        <v>0.97196261682243</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4615384615384616</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2857142857142857</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3529411764705883</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9467918622848199</v>
+        <v>0.8260675162083613</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6451612903225806</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7843137254901961</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9964788732394366</v>
+        <v>0.9347417840375587</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5379107981220657</v>
+        <v>0.6026995305164319</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1739130434782609</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5242957746478873</v>
+        <v>0.723356807511737</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3965337488218208</v>
+        <v>0.4631578947368421</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3671428571428572</v>
+        <v>0.09</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3193764462306662</v>
+        <v>0.1169497169497169</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7703010691354775</v>
+        <v>0.8117656510193039</v>
       </c>
     </row>
   </sheetData>

--- a/mbs-perturbation/nano/svm/nano-svm-sigmoid-results.xlsx
+++ b/mbs-perturbation/nano/svm/nano-svm-sigmoid-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.09523809523809523</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.97196261682243</v>
+        <v>0.4948453608247423</v>
       </c>
     </row>
     <row r="3">
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8260675162083613</v>
+        <v>0.6237113402061856</v>
       </c>
     </row>
     <row r="4">
@@ -514,7 +514,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9347417840375587</v>
+        <v>0.5581328751431844</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3157894736842105</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3076923076923077</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6026995305164319</v>
+        <v>0.9725934005999455</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1818181818181818</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.723356807511737</v>
+        <v>0.7653395145895827</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4631578947368421</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1169497169497169</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8117656510193039</v>
+        <v>0.6829244982727281</v>
       </c>
     </row>
   </sheetData>
